--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Egf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Egf-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H2">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I2">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J2">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N2">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O2">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P2">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q2">
-        <v>0.107084111528</v>
+        <v>0.1256349003321111</v>
       </c>
       <c r="R2">
-        <v>0.963757003752</v>
+        <v>1.130714102989</v>
       </c>
       <c r="S2">
-        <v>0.000782504008775944</v>
+        <v>0.0007685843296031029</v>
       </c>
       <c r="T2">
-        <v>0.0008887450840468043</v>
+        <v>0.0009141496591987061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H3">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I3">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J3">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>183.180478</v>
       </c>
       <c r="O3">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P3">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q3">
-        <v>5.399061408572</v>
+        <v>11.62644458527356</v>
       </c>
       <c r="R3">
-        <v>48.591552677148</v>
+        <v>104.638001267462</v>
       </c>
       <c r="S3">
-        <v>0.03945297892984247</v>
+        <v>0.07112596176395555</v>
       </c>
       <c r="T3">
-        <v>0.04480953539106978</v>
+        <v>0.08459679855856077</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H4">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I4">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J4">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N4">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O4">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P4">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q4">
-        <v>0.011696285316</v>
+        <v>0.02977029750377778</v>
       </c>
       <c r="R4">
-        <v>0.105266567844</v>
+        <v>0.267932677534</v>
       </c>
       <c r="S4">
-        <v>8.546917014074559E-05</v>
+        <v>0.0001821228344078035</v>
       </c>
       <c r="T4">
-        <v>9.707337463864346E-05</v>
+        <v>0.0002166158228755069</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H5">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I5">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J5">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N5">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O5">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P5">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q5">
-        <v>1.686068363772</v>
+        <v>4.496777427985166</v>
       </c>
       <c r="R5">
-        <v>10.116410182632</v>
+        <v>26.980664567911</v>
       </c>
       <c r="S5">
-        <v>0.01232073773499914</v>
+        <v>0.02750949501871006</v>
       </c>
       <c r="T5">
-        <v>0.009329021509584609</v>
+        <v>0.02181308719375758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.088422</v>
+        <v>0.1904096666666667</v>
       </c>
       <c r="H6">
-        <v>0.265266</v>
+        <v>0.571229</v>
       </c>
       <c r="I6">
-        <v>0.05306498573333136</v>
+        <v>0.09975479936454949</v>
       </c>
       <c r="J6">
-        <v>0.05560514240556081</v>
+        <v>0.1077412252037539</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N6">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O6">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P6">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q6">
-        <v>0.057927197484</v>
+        <v>0.02756560744333333</v>
       </c>
       <c r="R6">
-        <v>0.521344777356</v>
+        <v>0.24809046699</v>
       </c>
       <c r="S6">
-        <v>0.0004232958895730623</v>
+        <v>0.0001686354178729872</v>
       </c>
       <c r="T6">
-        <v>0.0004807670462209694</v>
+        <v>0.000200573969361345</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.034011</v>
       </c>
       <c r="I7">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J7">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N7">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O7">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P7">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q7">
-        <v>1.224787090321334</v>
+        <v>0.6672939742056666</v>
       </c>
       <c r="R7">
-        <v>11.023083812892</v>
+        <v>6.005645767851</v>
       </c>
       <c r="S7">
-        <v>0.008949981415523705</v>
+        <v>0.004082239015252096</v>
       </c>
       <c r="T7">
-        <v>0.0101651261797363</v>
+        <v>0.004855390958188617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.034011</v>
       </c>
       <c r="I8">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J8">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>183.180478</v>
       </c>
       <c r="O8">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P8">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q8">
-        <v>61.75239835969534</v>
+        <v>61.75239835969533</v>
       </c>
       <c r="R8">
         <v>555.771585237258</v>
       </c>
       <c r="S8">
-        <v>0.4512480757274218</v>
+        <v>0.3777766016386082</v>
       </c>
       <c r="T8">
-        <v>0.5125143187645421</v>
+        <v>0.4493252572811561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>3.034011</v>
       </c>
       <c r="I9">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J9">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N9">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O9">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P9">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q9">
-        <v>0.133777635686</v>
+        <v>0.1581211915006666</v>
       </c>
       <c r="R9">
-        <v>1.203998721174</v>
+        <v>1.423090723506</v>
       </c>
       <c r="S9">
-        <v>0.0009775636620143317</v>
+        <v>0.0009673225325472874</v>
       </c>
       <c r="T9">
-        <v>0.001110288112538981</v>
+        <v>0.001150527703212441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.034011</v>
       </c>
       <c r="I10">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J10">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N10">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O10">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P10">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q10">
-        <v>19.284604745562</v>
+        <v>23.8840678275415</v>
       </c>
       <c r="R10">
-        <v>115.707628473372</v>
+        <v>143.304406965249</v>
       </c>
       <c r="S10">
-        <v>0.14091988349846</v>
+        <v>0.1461132234028936</v>
       </c>
       <c r="T10">
-        <v>0.1067017781371013</v>
+        <v>0.1158574695784346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>3.034011</v>
       </c>
       <c r="I11">
-        <v>0.6069370007078572</v>
+        <v>0.5298350724050007</v>
       </c>
       <c r="J11">
-        <v>0.6359903406958977</v>
+        <v>0.5722539689365677</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N11">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O11">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P11">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q11">
-        <v>0.6625491181140001</v>
+        <v>0.14641125749</v>
       </c>
       <c r="R11">
-        <v>5.962942063026</v>
+        <v>1.31770131741</v>
       </c>
       <c r="S11">
-        <v>0.004841496404437268</v>
+        <v>0.0008956858156995526</v>
       </c>
       <c r="T11">
-        <v>0.005498829501978881</v>
+        <v>0.001065323415575861</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H12">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I12">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J12">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N12">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O12">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P12">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q12">
-        <v>0.1648317657248889</v>
+        <v>0.05767805154744444</v>
       </c>
       <c r="R12">
-        <v>1.483485891524</v>
+        <v>0.519102463927</v>
       </c>
       <c r="S12">
-        <v>0.001204487907803364</v>
+        <v>0.0003528513690401309</v>
       </c>
       <c r="T12">
-        <v>0.001368022009917362</v>
+        <v>0.0004196793329398246</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H13">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I13">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J13">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>183.180478</v>
       </c>
       <c r="O13">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P13">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q13">
-        <v>8.310633692836223</v>
+        <v>5.337614534896222</v>
       </c>
       <c r="R13">
-        <v>74.79570323552601</v>
+        <v>48.038530814066</v>
       </c>
       <c r="S13">
-        <v>0.06072893622890415</v>
+        <v>0.03265340186634792</v>
       </c>
       <c r="T13">
-        <v>0.06897414317053614</v>
+        <v>0.03883776319407258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H14">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I14">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J14">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N14">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O14">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P14">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q14">
-        <v>0.01800378537533334</v>
+        <v>0.01366732292911111</v>
       </c>
       <c r="R14">
-        <v>0.162034068378</v>
+        <v>0.123005906362</v>
       </c>
       <c r="S14">
-        <v>0.0001315604530711015</v>
+        <v>8.361124339790742E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001494225008569775</v>
+        <v>9.944671874437934E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H15">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I15">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J15">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N15">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O15">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P15">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q15">
-        <v>2.595320833014</v>
+        <v>2.064437187462167</v>
       </c>
       <c r="R15">
-        <v>15.571924998084</v>
+        <v>12.386623124773</v>
       </c>
       <c r="S15">
-        <v>0.0189649886142274</v>
+        <v>0.01262940526508923</v>
       </c>
       <c r="T15">
-        <v>0.01435991825461634</v>
+        <v>0.01001422665393624</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1361056666666667</v>
+        <v>0.08741566666666667</v>
       </c>
       <c r="H16">
-        <v>0.408317</v>
+        <v>0.262247</v>
       </c>
       <c r="I16">
-        <v>0.08168154147036057</v>
+        <v>0.04579668901430952</v>
       </c>
       <c r="J16">
-        <v>0.08559153804713523</v>
+        <v>0.04946319792238989</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N16">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O16">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P16">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q16">
-        <v>0.089165816558</v>
+        <v>0.01265516606333333</v>
       </c>
       <c r="R16">
-        <v>0.8024923490220001</v>
+        <v>0.11389649457</v>
       </c>
       <c r="S16">
-        <v>0.0006515682663545425</v>
+        <v>7.741927043433943E-05</v>
       </c>
       <c r="T16">
-        <v>0.0007400321112084005</v>
+        <v>9.208202269685999E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2283595</v>
+        <v>0.42447</v>
       </c>
       <c r="H17">
-        <v>0.456719</v>
+        <v>0.84894</v>
       </c>
       <c r="I17">
-        <v>0.1370461379472381</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J17">
-        <v>0.09573758052040339</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N17">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O17">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P17">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q17">
-        <v>0.2765564471113334</v>
+        <v>0.28007110709</v>
       </c>
       <c r="R17">
-        <v>1.659338682668</v>
+        <v>1.68042664254</v>
       </c>
       <c r="S17">
-        <v>0.002020902311552218</v>
+        <v>0.001713363591764226</v>
       </c>
       <c r="T17">
-        <v>0.001530187683460272</v>
+        <v>0.001358576353231628</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2283595</v>
+        <v>0.42447</v>
       </c>
       <c r="H18">
-        <v>0.456719</v>
+        <v>0.84894</v>
       </c>
       <c r="I18">
-        <v>0.1370461379472381</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J18">
-        <v>0.09573758052040339</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>183.180478</v>
       </c>
       <c r="O18">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P18">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q18">
-        <v>13.94366745528033</v>
+        <v>25.91820583222</v>
       </c>
       <c r="R18">
-        <v>83.66200473168199</v>
+        <v>155.50923499332</v>
       </c>
       <c r="S18">
-        <v>0.1018916394328262</v>
+        <v>0.1585572703238782</v>
       </c>
       <c r="T18">
-        <v>0.07715035547063701</v>
+        <v>0.1257247201530465</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2283595</v>
+        <v>0.42447</v>
       </c>
       <c r="H19">
-        <v>0.456719</v>
+        <v>0.84894</v>
       </c>
       <c r="I19">
-        <v>0.1370461379472381</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J19">
-        <v>0.09573758052040339</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N19">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O19">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P19">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q19">
-        <v>0.030206937941</v>
+        <v>0.06636531854</v>
       </c>
       <c r="R19">
-        <v>0.181241627646</v>
+        <v>0.39819191124</v>
       </c>
       <c r="S19">
-        <v>0.0002207334934604012</v>
+        <v>0.0004059966118023439</v>
       </c>
       <c r="T19">
-        <v>0.0001671350817352642</v>
+        <v>0.0003219266470573673</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2283595</v>
+        <v>0.42447</v>
       </c>
       <c r="H20">
-        <v>0.456719</v>
+        <v>0.84894</v>
       </c>
       <c r="I20">
-        <v>0.1370461379472381</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J20">
-        <v>0.09573758052040339</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N20">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O20">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P20">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q20">
-        <v>4.354456227147</v>
+        <v>10.024423382865</v>
       </c>
       <c r="R20">
-        <v>17.417824908588</v>
+        <v>40.09769353146</v>
       </c>
       <c r="S20">
-        <v>0.03181965471031573</v>
+        <v>0.06132543349825652</v>
       </c>
       <c r="T20">
-        <v>0.01606214658054923</v>
+        <v>0.03241782584964797</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2283595</v>
+        <v>0.42447</v>
       </c>
       <c r="H21">
-        <v>0.456719</v>
+        <v>0.84894</v>
       </c>
       <c r="I21">
-        <v>0.1370461379472381</v>
+        <v>0.2223779938672774</v>
       </c>
       <c r="J21">
-        <v>0.09573758052040339</v>
+        <v>0.1601211348241683</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N21">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O21">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P21">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q21">
-        <v>0.149603332359</v>
+        <v>0.06145052190000001</v>
       </c>
       <c r="R21">
-        <v>0.897619994154</v>
+        <v>0.3687031314000001</v>
       </c>
       <c r="S21">
-        <v>0.001093207999083483</v>
+        <v>0.0003759298415760415</v>
       </c>
       <c r="T21">
-        <v>0.0008277557040216043</v>
+        <v>0.0002980858211848842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2020723333333333</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H22">
-        <v>0.606217</v>
+        <v>0.585434</v>
       </c>
       <c r="I22">
-        <v>0.1212703341412127</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J22">
-        <v>0.1270753983310031</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.211057333333333</v>
+        <v>0.6598136666666666</v>
       </c>
       <c r="N22">
-        <v>3.633172</v>
+        <v>1.979441</v>
       </c>
       <c r="O22">
-        <v>0.0147461456544675</v>
+        <v>0.007704735356083927</v>
       </c>
       <c r="P22">
-        <v>0.01598314554371009</v>
+        <v>0.008484678519943686</v>
       </c>
       <c r="Q22">
-        <v>0.2447211811471111</v>
+        <v>0.1287591180437778</v>
       </c>
       <c r="R22">
-        <v>2.202490630324</v>
+        <v>1.158832062394</v>
       </c>
       <c r="S22">
-        <v>0.001788270010812266</v>
+        <v>0.0007876970504243709</v>
       </c>
       <c r="T22">
-        <v>0.002031064586549356</v>
+        <v>0.0009368822163849092</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2020723333333333</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H23">
-        <v>0.606217</v>
+        <v>0.585434</v>
       </c>
       <c r="I23">
-        <v>0.1212703341412127</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J23">
-        <v>0.1270753983310031</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>183.180478</v>
       </c>
       <c r="O23">
-        <v>0.7434842087418319</v>
+        <v>0.7130079175842846</v>
       </c>
       <c r="P23">
-        <v>0.8058523627949308</v>
+        <v>0.7851850431306702</v>
       </c>
       <c r="Q23">
-        <v>12.33856887019178</v>
+        <v>11.91556443971689</v>
       </c>
       <c r="R23">
-        <v>111.047119831726</v>
+        <v>107.240079957452</v>
       </c>
       <c r="S23">
-        <v>0.09016257842283712</v>
+        <v>0.07289468199149475</v>
       </c>
       <c r="T23">
-        <v>0.1024040099981458</v>
+        <v>0.08670050394383419</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2020723333333333</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H24">
-        <v>0.606217</v>
+        <v>0.585434</v>
       </c>
       <c r="I24">
-        <v>0.1212703341412127</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J24">
-        <v>0.1270753983310031</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.132278</v>
+        <v>0.1563486666666667</v>
       </c>
       <c r="N24">
-        <v>0.396834</v>
+        <v>0.469046</v>
       </c>
       <c r="O24">
-        <v>0.001610650958623747</v>
+        <v>0.001825704984300993</v>
       </c>
       <c r="P24">
-        <v>0.001745762539921768</v>
+        <v>0.002010519394650058</v>
       </c>
       <c r="Q24">
-        <v>0.02672972410866667</v>
+        <v>0.03051060844044444</v>
       </c>
       <c r="R24">
-        <v>0.240567516978</v>
+        <v>0.274595475964</v>
       </c>
       <c r="S24">
-        <v>0.0001953241799371664</v>
+        <v>0.000186651762145651</v>
       </c>
       <c r="T24">
-        <v>0.0002218434701519023</v>
+        <v>0.0002220025027603632</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2020723333333333</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H25">
-        <v>0.606217</v>
+        <v>0.585434</v>
       </c>
       <c r="I25">
-        <v>0.1212703341412127</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J25">
-        <v>0.1270753983310031</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.068426</v>
+        <v>23.6163295</v>
       </c>
       <c r="N25">
-        <v>38.136852</v>
+        <v>47.232659</v>
       </c>
       <c r="O25">
-        <v>0.232182060632501</v>
+        <v>0.2757711427815902</v>
       </c>
       <c r="P25">
-        <v>0.1677726394717705</v>
+        <v>0.2024581319964196</v>
       </c>
       <c r="Q25">
-        <v>3.853201334814</v>
+        <v>4.608600748167667</v>
       </c>
       <c r="R25">
-        <v>23.119208008884</v>
+        <v>27.651604489006</v>
       </c>
       <c r="S25">
-        <v>0.02815679607449871</v>
+        <v>0.02819358559664076</v>
       </c>
       <c r="T25">
-        <v>0.021319774989919</v>
+        <v>0.02235552272064317</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2020723333333333</v>
+        <v>0.1951446666666667</v>
       </c>
       <c r="H26">
-        <v>0.606217</v>
+        <v>0.585434</v>
       </c>
       <c r="I26">
-        <v>0.1212703341412127</v>
+        <v>0.102235445348863</v>
       </c>
       <c r="J26">
-        <v>0.1270753983310031</v>
+        <v>0.1104204731131201</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.655122</v>
+        <v>0.14477</v>
       </c>
       <c r="N26">
-        <v>1.965366</v>
+        <v>0.43431</v>
       </c>
       <c r="O26">
-        <v>0.007976934012575832</v>
+        <v>0.00169049929374041</v>
       </c>
       <c r="P26">
-        <v>0.008646089649666828</v>
+        <v>0.001861626958316384</v>
       </c>
       <c r="Q26">
-        <v>0.132382031158</v>
+        <v>0.02825109339333334</v>
       </c>
       <c r="R26">
-        <v>1.191438280422</v>
+        <v>0.25425984054</v>
       </c>
       <c r="S26">
-        <v>0.0009673654531274762</v>
+        <v>0.0001728289481574892</v>
       </c>
       <c r="T26">
-        <v>0.001098705286236975</v>
+        <v>0.0002055617294974338</v>
       </c>
     </row>
   </sheetData>
